--- a/m1/u1/ejercicios/20191028/BuscarV/buscar10v.xlsx
+++ b/m1/u1/ejercicios/20191028/BuscarV/buscar10v.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\Material práctico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\BuscarV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="9270" windowHeight="4215"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="9270" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Consultas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Productos!$A$3:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -128,11 +128,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,17 +162,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -305,13 +295,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -321,10 +305,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,20 +317,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,6 +353,1208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Productos!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EN STOCK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-1DA9-4787-8206-BAF9303911FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Productos!$B$4:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Televisor 14" color</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Televisor 20" color</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Televisor 28" color</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Microondas chico</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Microondas grande</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nevera 15 pies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nevera 23 pies</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nevera 25 pies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cocina de gas 2 hornillos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cocina de gas 4 hornillos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cocina de gas 6 hornillos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Vitrocerámica</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Horno de empotrar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Cafetera</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Cafetera express</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Productos!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-1DA9-4787-8206-BAF9303911FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,6 +1827,43 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -927,7 +2162,9 @@
   </sheetPr>
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -937,41 +2174,41 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="11"/>
+    <col min="12" max="12" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -980,7 +2217,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -988,10 +2225,12 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="17">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="1"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1000,7 +2239,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1008,10 +2247,13 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="15">
+        <f>IFERROR(VLOOKUP(D$7,Productos!A$4:F$18,1,0),"")</f>
+        <v>1004</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="1"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1019,10 +2261,13 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="15" t="str">
+        <f>IFERROR(VLOOKUP(D$7,Productos!A$4:F$18,2,0),"")</f>
+        <v>Microondas chico</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="1"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1030,10 +2275,13 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(D$7,Productos!A$4:F$18,3,0),"")</f>
+        <v>PANAVOX</v>
+      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="1"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1041,10 +2289,13 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="20">
+        <f>IFERROR(VLOOKUP(D$7,Productos!A$4:F$18,4,0),"")</f>
+        <v>73.92</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="1"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1052,49 +2303,52 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="15">
+        <f>IFERROR(VLOOKUP(D$7,Productos!A$4:F$18,5,0),"")</f>
+        <v>86</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="1"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L14" s="14"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L15" s="14"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L16" s="14"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L17" s="14"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L18" s="14"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L19" s="14"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L20" s="14"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L21" s="14"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L22" s="14"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L23" s="14"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L24" s="14"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L25" s="14"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L26" s="14"/>
+      <c r="L26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1108,12 +2362,6 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="PANOLI LEE LO QUE TE HE PUESTO" promptTitle="INTRODUZCA CODIGO" prompt="VALORES ENTRE 1001 Y 1015" sqref="D7">
-      <formula1>1001</formula1>
-      <formula2>1015</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
@@ -1121,6 +2369,18 @@
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Productos!$A$4:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1131,8 +2391,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +2450,10 @@
       <c r="E4" s="4">
         <v>34</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="str">
+        <f>IF(E4&lt;10,"Pedir a fábrica","-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1208,7 +2471,10 @@
       <c r="E5" s="4">
         <v>25</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ref="F5:F18" si="0">IF(E5&lt;10,"Pedir a fábrica","-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1226,7 +2492,10 @@
       <c r="E6" s="4">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1244,7 +2513,10 @@
       <c r="E7" s="4">
         <v>86</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1262,7 +2534,10 @@
       <c r="E8" s="4">
         <v>54</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1280,7 +2555,10 @@
       <c r="E9" s="4">
         <v>48</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1298,7 +2576,10 @@
       <c r="E10" s="4">
         <v>12</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1316,7 +2597,10 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedir a fábrica</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1334,7 +2618,10 @@
       <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedir a fábrica</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1352,7 +2639,10 @@
       <c r="E13" s="4">
         <v>35</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1370,7 +2660,10 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1388,7 +2681,10 @@
       <c r="E15" s="4">
         <v>8</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedir a fábrica</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1406,7 +2702,10 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedir a fábrica</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1424,7 +2723,10 @@
       <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1442,13 +2744,21 @@
       <c r="E18" s="4">
         <v>14</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F4:F18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Pedir a fábrica"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1459,11 +2769,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>